--- a/Week 1/workbook/W01-V01 Take charge.xlsx
+++ b/Week 1/workbook/W01-V01 Take charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Week 1\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F650846-7890-435F-AF9A-EE5A71B2CC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CAAD18-6E73-499D-B5EF-A005D5528B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6206,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -83169,14 +83169,14 @@
         <v>21</v>
       </c>
       <c r="R1028" s="5">
-        <f t="shared" ref="R1028:R1091" si="64">P1028*Q1028</f>
+        <f t="shared" ref="R1028:R1042" si="64">P1028*Q1028</f>
         <v>59.64</v>
       </c>
       <c r="S1028" s="6">
         <v>0.01</v>
       </c>
       <c r="T1028" s="12">
-        <f t="shared" ref="T1028:T1091" si="65">R1028*S1028</f>
+        <f t="shared" ref="T1028:T1042" si="65">R1028*S1028</f>
         <v>0.59640000000000004</v>
       </c>
       <c r="U1028" s="12">
@@ -83187,7 +83187,7 @@
         <v>5.44</v>
       </c>
       <c r="W1028" s="10">
-        <f t="shared" ref="W1028:W1091" si="67">U1028+V1028</f>
+        <f t="shared" ref="W1028:W1042" si="67">U1028+V1028</f>
         <v>65.070000000000007</v>
       </c>
     </row>
